--- a/Table/client/lua/exe/temp/X 仙途引导.xlsx
+++ b/Table/client/lua/exe/temp/X 仙途引导.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768600D0-A131-499A-9E05-3F6072B44FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F04E9-8DD4-45D6-AB3C-45D0A831A54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{11AF8FF3-3B14-409D-886B-EB6F4D8955ED}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{08ACC81E-BDDD-474C-A160-E023BDF302DC}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F7B492AF-A82D-47BD-BAAD-D370FEF6974E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C693F869-2867-44DD-A458-963F0F47564A}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,10 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,40 +157,17 @@
     <t>icon_boss</t>
   </si>
   <si>
-    <t>装备副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_fuben</t>
   </si>
   <si>
-    <t>组队通关四灵古阵，有机会获得[67cc67]橙色、红色品质装备[ffffff]，所得橙色2星装备可合成高级装备！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备寻宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_xunbao</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>装备寻宝可获得[67cc67]戒指手镯，人物装备[ffffff]，更有可能寻得[67cc67]极品神兵[ffffff]！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道庭仓库</t>
-  </si>
-  <si>
     <t>sys_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在道庭仓库中存入装备可获取[67cc67]仓库积分[ffffff]，积分可换取其他玩家[67cc67]存入的装备[ffffff]！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青竹院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,94 +176,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与伙伴组队通关幽冥古舟，获得[67cc67]大量经验[ffffff]，使用经验药效果更佳！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每天挂机做日常，[67cc67]大量经验、银两[ffffff]拿到手软！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护送仙灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_husong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>护送仙灵获得[67cc67]大量经验和银两[ffffff]，双倍护送时段，双倍护送奖励！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验祈福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验祈福获得[67cc67]大量经验[ffffff]，助你等级直冲九霄！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野外挂机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用离线挂机卡增加[67cc67]离线挂机时间[ffffff]，下线也能飞速升级！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月卡投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买[67cc67]月卡投资[ffffff]，天天领绑元，[67cc67]可获得8倍绑元收益[ffffff]！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qiretouzhi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购买[67cc67]巅峰投资[ffffff]，升级可领绑元，[67cc67]可获15倍绑元收益[ffffff]！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日签到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坚持每日上线签到，即可轻松获得[67cc67]绑元奖励，升级VIP奖励还翻倍[ffffff]！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chengjiu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多多参与活动达成成就条件，领取[67cc67]绑元奖励[ffffff]！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,22 +210,10 @@
     <t>vip</t>
   </si>
   <si>
-    <t>化神投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备合成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开启装备强化，[67cc67]低阶装备合成高阶装备[ffffff]，战力飙升无人可挡！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳转系统</t>
   </si>
   <si>
@@ -340,14 +233,840 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击败Boss，可获得[67cc67]2星橙色、红色装备、套装材料[ffffff]，更有[67cc67]珍惜翅膀、法宝[ffffff]掉落！</t>
+    <t>擊敗Boss，可獲得[67cc67]2星橙色、紅色裝備、套裝材料[ffffff]，更有[67cc67]珍惜翅膀、法寶[ffffff]掉落！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組隊通關四靈古陣，有機會獲得[67cc67]橙色、紅色品質裝備[ffffff]，所得橙色2星裝備可合成高級裝備！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備尋寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備尋寶可獲得[67cc67]戒指手鐲，人物裝備[ffffff]，更有可能尋得[67cc67]極品神兵[ffffff]！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道庭倉庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在道庭倉庫中存入裝備可獲取[67cc67]倉庫積分[ffffff]，積分可換取其他玩家[67cc67]存入的裝備[ffffff]！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟裝備強化，[67cc67]低階裝備合成高階裝備[ffffff]，戰力飆升無人可擋！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>與夥伴組隊通關幽冥古舟，獲得[67cc67]大量經驗[ffffff]，使用經驗藥效果更佳！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天掛機做日常，[67cc67]大量經驗、銀兩[ffffff]拿到手軟！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護送仙靈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護送仙靈獲得[67cc67]大量經驗和銀兩[ffffff]，雙倍護送時段，雙倍護送獎勵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經驗祈福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經驗祈福獲得[67cc67]大量經驗[ffffff]，助你等級直沖九霄！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外掛機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用離線掛機卡增加[67cc67]離線掛機時間[ffffff]，下線也能飛速升級！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買[67cc67]月卡投資[ffffff]，天天領綁元，[67cc67]可獲得8倍綁元收益[ffffff]！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化神投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買[67cc67]巔峰投資[ffffff]，升級可領綁元，[67cc67]可獲15倍綁元收益[ffffff]！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日簽到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅持每日上線簽到，即可輕鬆獲得[67cc67]綁元獎勵，升級VIP獎勵還翻倍[ffffff]！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多參與活動達成成就條件，領取[67cc67]綁元獎勵[ffffff]！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>장비 던전</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>장비 보물찾기</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>장비 합성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>청죽원</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일상 퀘스트</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선령 호송</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>경험치 축복</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>필드 자동전투</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>월정액권 투자</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>화신 투자</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일일 출석</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>업적 보상</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>보스 처치 시 [67cc67]2성 전설, 신화 장비, 세트 재료[ffffff] 획득, [67cc67]진귀한 날개, 법보[[ffffff]가 드랍됩니다!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>파티 사령고진 클리어 시 [67cc67]전설, 신화 품질 장비[ffffff] 획득의 기회, 획득한 전설 2성 장비를 고급 장비로 합성 가능!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>장비 보물찾기로 [67cc67]반지/팔찌, 캐릭터 장비[ffffff] 획득 가능, [67cc67]최고급 신병[[ffffff]]도 획득할 수 있습니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>장비 강화 오픈, [67cc67]초급 장비를 고급 장비로 합성[ffffff], 전투력 급상승합니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>동료와 파티로 명계의 배 클리어 시 [67cc67]대량의 경험치[ffffff] 획득, 경험치 물약을 사용하면 효과가 더 좋습니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>매일 자동전투로 일상 퀘스트를 완료해 [67cc67]대량의 경험치, 은화[ffffff]를 획득합니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선령 호송으로 [67cc67]대량의 경험치와 은화[ffffff] 획득, 2배 호송 시간대에 2배 호송 보상이 주어집니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>경험치 축복 시 [67cc67]대량의 경험치[ffffff]를 획득해 레벨 상승에 도움이 됩니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>오프라인 자동전투권으로 [67cc67]오프라인 자동전투 시간[ffffff] 증가, 접속하지 않고도 빠르게 레벨업할 수 있습니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[67cc67]월정액권 투자[ffffff] 구매 시 매일 귀속원보 획득, [67cc67]8배 귀속원보 수익[ffffff]을 획득합니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[67cc67]정상투자[ffffff] 구매, 레벨업 시 귀속원보 획득, [67cc67]15배 귀속원보 수익을 획득합니다[ffffff]!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>메일 접속해 출석하면 손쉽게 [67cc67]귀속원보 보상을 획득하며, VIP 레벨업 시 보상이 2배가 됩니다[ffffff]!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>많은 이벤트에 참여해 업적 조건을 달성하면 [67cc67]귀속원보 보상[ffffff]을 획득합니다!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창고에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [67cc67]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[ffffff] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [67cc67]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보관한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[ffffff]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바꿀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창고</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,13 +1116,47 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="BatangChe"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -418,9 +1171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,392 +1465,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="101.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="8" width="101.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>103</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>51</v>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>104</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>105</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>201</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>202</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>203</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>204</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>205</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>301</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>302</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>303</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>304</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="1" t="s">
-        <v>42</v>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
